--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_31_9.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_31_9.xlsx
@@ -518,441 +518,441 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_31_9_4</t>
+          <t>model_31_9_1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9995620137608829</v>
+        <v>0.9995521053440306</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9996062990159218</v>
+        <v>0.9996251952204269</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9991225166422044</v>
+        <v>0.9998049222587918</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9997821659473568</v>
+        <v>0.9997878941168847</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9994134299823594</v>
+        <v>0.9997990106197627</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0004088409288418479</v>
+        <v>0.0004180900010442785</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0003675025871611188</v>
+        <v>0.0003498638097030674</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0009156009538642738</v>
+        <v>0.0001428600673655764</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0001761170369473235</v>
+        <v>0.0001737322963416107</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0005458501884793225</v>
+        <v>0.0001582961818535936</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001939564595844605</v>
+        <v>0.002170823933451629</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02021981525241633</v>
+        <v>0.02044724922927968</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000420466789552</v>
+        <v>1.000429978869731</v>
       </c>
       <c r="O2" t="n">
-        <v>0.02108061464849947</v>
+        <v>0.02131773096061113</v>
       </c>
       <c r="P2" t="n">
-        <v>113.6043688092205</v>
+        <v>113.5596276702262</v>
       </c>
       <c r="Q2" t="n">
-        <v>173.3292842277623</v>
+        <v>173.284543088768</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_31_9_3</t>
+          <t>model_31_9_0</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9995544023827519</v>
+        <v>0.9995424465132511</v>
       </c>
       <c r="C3" t="n">
-        <v>0.999606291309355</v>
+        <v>0.9996251521656754</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9991122889250813</v>
+        <v>0.9997975826796377</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9997771806241242</v>
+        <v>0.9997824987695448</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9994055208202073</v>
+        <v>0.9997927927592625</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0004159458162262585</v>
+        <v>0.0004271060956032775</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0003675097809029714</v>
+        <v>0.0003499039994237429</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0009262729597440332</v>
+        <v>0.000148235015660029</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0001801476297094479</v>
+        <v>0.000178151532947243</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0005532102947267406</v>
+        <v>0.000163193274303636</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001959182872117225</v>
+        <v>0.002196376800333734</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02039474972207942</v>
+        <v>0.02066654532337898</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000427773712558</v>
+        <v>1.000439251347279</v>
       </c>
       <c r="O3" t="n">
-        <v>0.02126299644070039</v>
+        <v>0.02154636294344173</v>
       </c>
       <c r="P3" t="n">
-        <v>113.5699111112846</v>
+        <v>113.5169562162872</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.2948265298265</v>
+        <v>173.241871634829</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_31_9_5</t>
+          <t>model_31_9_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9995694601554016</v>
+        <v>0.9995615592629103</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9996062119160251</v>
+        <v>0.9996250823183989</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9991325154670874</v>
+        <v>0.999811970396901</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9997870529236134</v>
+        <v>0.9997932068428502</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9994211491684958</v>
+        <v>0.9998050472402125</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0004018900464176632</v>
+        <v>0.0004092651827491092</v>
       </c>
       <c r="H4" t="n">
-        <v>0.000367583891091515</v>
+        <v>0.0003499691987904845</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0009051677832303054</v>
+        <v>0.0001376985482766129</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0001721659569049278</v>
+        <v>0.0001693807334888709</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0005386668700676166</v>
+        <v>0.0001535418313134948</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00192012315972899</v>
+        <v>0.00214558490186601</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02004719547511978</v>
+        <v>0.02023030357530774</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000413318250814</v>
+        <v>1.000420903107606</v>
       </c>
       <c r="O4" t="n">
-        <v>0.02090064608991121</v>
+        <v>0.02109154948101019</v>
       </c>
       <c r="P4" t="n">
-        <v>113.6386640462633</v>
+        <v>113.6022944868837</v>
       </c>
       <c r="Q4" t="n">
-        <v>173.3635794648051</v>
+        <v>173.3272099054255</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_31_9_2</t>
+          <t>model_31_9_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9995466446402629</v>
+        <v>0.9995708131008533</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9996061820618356</v>
+        <v>0.9996248553353382</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9991019117986623</v>
+        <v>0.9998188302018501</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9997720642339402</v>
+        <v>0.9997983848088763</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9993974787144797</v>
+        <v>0.9998109303195926</v>
       </c>
       <c r="G5" t="n">
-        <v>0.000423187328314224</v>
+        <v>0.0004006271312258991</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0003676117586668435</v>
+        <v>0.0003501810775142085</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0009371008652116742</v>
+        <v>0.0001326749500378421</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0001842841890221692</v>
+        <v>0.0001651395501945458</v>
       </c>
       <c r="K5" t="n">
-        <v>0.000560694115575333</v>
+        <v>0.0001489084073867693</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001978981163979091</v>
+        <v>0.002120591132924951</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02057151740427098</v>
+        <v>0.02001567214024798</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000435221145348</v>
+        <v>1.000412019423181</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0214472894890824</v>
+        <v>0.02086778074141162</v>
       </c>
       <c r="P5" t="n">
-        <v>113.5353912408304</v>
+        <v>113.6449588211017</v>
       </c>
       <c r="Q5" t="n">
-        <v>173.2603066593722</v>
+        <v>173.3698742396435</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_31_9_6</t>
+          <t>model_31_9_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9995767690380498</v>
+        <v>0.999579872101379</v>
       </c>
       <c r="C6" t="n">
-        <v>0.999606037560409</v>
+        <v>0.9996245101840275</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9991423523185857</v>
+        <v>0.9998254252044697</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9997917949555886</v>
+        <v>0.9998034645809215</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9994287240457446</v>
+        <v>0.9998166436580375</v>
       </c>
       <c r="G6" t="n">
-        <v>0.000395067525288329</v>
+        <v>0.0003921709518793597</v>
       </c>
       <c r="H6" t="n">
-        <v>0.000367746644405677</v>
+        <v>0.0003505032611122384</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0008949036220529374</v>
+        <v>0.0001278452728401254</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0001683320631200011</v>
+        <v>0.0001609787959083227</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0005316178425864693</v>
+        <v>0.0001444086688413782</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001900846829269599</v>
+        <v>0.002095851316344247</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01987630562474649</v>
+        <v>0.01980330658954104</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000406301723472</v>
+        <v>1.000403322782676</v>
       </c>
       <c r="O6" t="n">
-        <v>0.02072248110481677</v>
+        <v>0.02064637434955379</v>
       </c>
       <c r="P6" t="n">
-        <v>113.6729077151528</v>
+        <v>113.687625423011</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.3978231336947</v>
+        <v>173.4125408415528</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_31_9_1</t>
+          <t>model_31_9_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9995387239558639</v>
+        <v>0.999588734375474</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9996059742585465</v>
+        <v>0.9996240755784955</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9990912821995512</v>
+        <v>0.9998319067053302</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9997668278456583</v>
+        <v>0.9998083889353435</v>
       </c>
       <c r="F7" t="n">
-        <v>0.999389246349046</v>
+        <v>0.9998222133950435</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0004305809395228659</v>
+        <v>0.0003838984080204534</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0003678057339157337</v>
+        <v>0.0003509089462994542</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0009481922107041912</v>
+        <v>0.0001230987156787644</v>
       </c>
       <c r="J7" t="n">
-        <v>0.000188517765808374</v>
+        <v>0.0001569453415356132</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0005683549882562827</v>
+        <v>0.0001400220286071888</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001998973336081046</v>
+        <v>0.00207132425579841</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02075044432109505</v>
+        <v>0.01959332559879648</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000442825002371</v>
+        <v>1.000394814999545</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02163383369518545</v>
+        <v>0.02042745403331266</v>
       </c>
       <c r="P7" t="n">
-        <v>113.5007504778794</v>
+        <v>113.7302652056522</v>
       </c>
       <c r="Q7" t="n">
-        <v>173.2256658964213</v>
+        <v>173.455180624194</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_31_9_7</t>
+          <t>model_31_9_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9995839227836989</v>
+        <v>0.999597421843974</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9996057769528353</v>
+        <v>0.9996235396836781</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9991519423780608</v>
+        <v>0.9998381998641003</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9997964356663105</v>
+        <v>0.9998132109432111</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9994361146460474</v>
+        <v>0.9998276452592573</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0003883898177381444</v>
+        <v>0.000375789037511469</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0003679899101365119</v>
+        <v>0.0003514091805884215</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0008848969734652106</v>
+        <v>0.0001184900859075193</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0001645800867336227</v>
+        <v>0.0001529957174728297</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0005247402995021927</v>
+        <v>0.0001357439748893334</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0018817496206109</v>
+        <v>0.002047006945298472</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01970760811813916</v>
+        <v>0.0193852788866054</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000399434127649</v>
+        <v>1.000386475029785</v>
       </c>
       <c r="O8" t="n">
-        <v>0.02054660179610118</v>
+        <v>0.02021055034186754</v>
       </c>
       <c r="P8" t="n">
-        <v>113.7070020756139</v>
+        <v>113.772965284963</v>
       </c>
       <c r="Q8" t="n">
-        <v>173.4319174941557</v>
+        <v>173.4978807035049</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_31_9_0</t>
+          <t>model_31_9_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9995306499816515</v>
+        <v>0.9996059264688809</v>
       </c>
       <c r="C9" t="n">
-        <v>0.999605661307763</v>
+        <v>0.9996228742005474</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9990805333028149</v>
+        <v>0.9998442307179241</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9997614602478897</v>
+        <v>0.9998179417507936</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9993808904895244</v>
+        <v>0.9998329104747868</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0004381176400435264</v>
+        <v>0.0003678503434708324</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0003680978597352063</v>
+        <v>0.000352030379879655</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0009594080360727676</v>
+        <v>0.000114073548284083</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0001928574243835881</v>
+        <v>0.0001491207940015575</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0005761307820364645</v>
+        <v>0.0001315971711428202</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0020191290783959</v>
+        <v>0.002022957731283101</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02093125987711983</v>
+        <v>0.01917942500365515</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000450576017615</v>
+        <v>1.000378310589874</v>
       </c>
       <c r="O9" t="n">
-        <v>0.02182234694377</v>
+        <v>0.01999593283294381</v>
       </c>
       <c r="P9" t="n">
-        <v>113.4660461981519</v>
+        <v>113.8156687557224</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.1909616166937</v>
+        <v>173.5405841742642</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9995909405686861</v>
+        <v>0.9996142474593008</v>
       </c>
       <c r="C10" t="n">
-        <v>0.999605424748354</v>
+        <v>0.99962213460994</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9991614249214997</v>
+        <v>0.9998501384493254</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9998009550388411</v>
+        <v>0.9998225581162428</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9994433960618272</v>
+        <v>0.9998380575763904</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0003818390234976367</v>
+        <v>0.0003600830641631368</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0003683186775596893</v>
+        <v>0.0003527207552473462</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0008750025113759138</v>
+        <v>0.0001097471761375688</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0001609262112751272</v>
+        <v>0.000145339608121927</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0005179643613255205</v>
+        <v>0.0001275433921297479</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001862831475185601</v>
+        <v>0.001999099554648187</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01954070171456585</v>
+        <v>0.01897585476765505</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000392697054061</v>
+        <v>1.000370322439071</v>
       </c>
       <c r="O10" t="n">
-        <v>0.02037258984138387</v>
+        <v>0.01978369619054871</v>
       </c>
       <c r="P10" t="n">
-        <v>113.7410228852599</v>
+        <v>113.8583516386851</v>
       </c>
       <c r="Q10" t="n">
-        <v>173.4659383038017</v>
+        <v>173.583267057227</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9995977921496437</v>
+        <v>0.9996224058415035</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9996049992890289</v>
+        <v>0.9996212852769332</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9991705730293511</v>
+        <v>0.9998558134947976</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9998053714658828</v>
+        <v>0.9998270887778873</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9994504433586392</v>
+        <v>0.9998430494128573</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0003754433734233918</v>
+        <v>0.0003524675724885297</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0003687158251642369</v>
+        <v>0.0003535135703277941</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0008654570126488953</v>
+        <v>0.0001055912054284059</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0001573555663965446</v>
+        <v>0.0001416286207608803</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0005114062895227199</v>
+        <v>0.0001236118975790501</v>
       </c>
       <c r="L11" t="n">
-        <v>0.00184410201142732</v>
+        <v>0.001975483864474194</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01937636120181991</v>
+        <v>0.01877411975269492</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000386119536342</v>
+        <v>1.000362490392157</v>
       </c>
       <c r="O11" t="n">
-        <v>0.02020125301277857</v>
+        <v>0.01957337289835268</v>
       </c>
       <c r="P11" t="n">
-        <v>113.7748058025309</v>
+        <v>113.9011038657678</v>
       </c>
       <c r="Q11" t="n">
-        <v>173.4997212210727</v>
+        <v>173.6260192843096</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9996045232791988</v>
+        <v>0.9996303795000087</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9996044854083976</v>
+        <v>0.9996203268651062</v>
       </c>
       <c r="D12" t="n">
-        <v>0.999179628530308</v>
+        <v>0.9998612812244957</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9998096765538632</v>
+        <v>0.9998315088848316</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9994573903704302</v>
+        <v>0.9998478924159591</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0003691601594462349</v>
+        <v>0.0003450245122770793</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0003691955101767828</v>
+        <v>0.0003544082056988753</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0008560081436302736</v>
+        <v>0.0001015870569891037</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0001538749382315382</v>
+        <v>0.0001380081868613598</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0005049415409309058</v>
+        <v>0.0001197976219252317</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001825507554868619</v>
+        <v>0.001952140024581874</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01921354104391574</v>
+        <v>0.01857483545760445</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000379657651969</v>
+        <v>1.000354835679992</v>
       </c>
       <c r="O12" t="n">
-        <v>0.02003150126366824</v>
+        <v>0.01936560465824484</v>
       </c>
       <c r="P12" t="n">
-        <v>113.8085599433013</v>
+        <v>113.9437901867567</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.5334753618431</v>
+        <v>173.6687056052986</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9996111079315525</v>
+        <v>0.9996381876714514</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9996039038199015</v>
+        <v>0.9996192725861822</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9991884579780145</v>
+        <v>0.9998665850006788</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9998138605887494</v>
+        <v>0.9998358301317555</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9994641580620954</v>
+        <v>0.999852601403686</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0003630136755068695</v>
+        <v>0.0003377359269744399</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0003697383975091044</v>
+        <v>0.0003553923287968807</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0008467951475428781</v>
+        <v>9.770297560636999e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0001504921804960618</v>
+        <v>0.0001344687275115292</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0004986436640194699</v>
+        <v>0.0001160888947443189</v>
       </c>
       <c r="L13" t="n">
-        <v>0.001807102736021145</v>
+        <v>0.001929035467537984</v>
       </c>
       <c r="M13" t="n">
-        <v>0.01905291776885812</v>
+        <v>0.01837759306803913</v>
       </c>
       <c r="N13" t="n">
-        <v>1.00037333638571</v>
+        <v>1.000347339835407</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0198640399232554</v>
+        <v>0.01915996525180769</v>
       </c>
       <c r="P13" t="n">
-        <v>113.8421401016728</v>
+        <v>113.9864924979623</v>
       </c>
       <c r="Q13" t="n">
-        <v>173.5670555202146</v>
+        <v>173.7114079165041</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9996175600328395</v>
+        <v>0.9996458332641873</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9996032401994154</v>
+        <v>0.9996181535411477</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9991971454643713</v>
+        <v>0.9998717282056001</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9998179372418499</v>
+        <v>0.9998400435945984</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9994707977756369</v>
+        <v>0.9998571874195727</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0003569909221699054</v>
+        <v>0.0003305991017581804</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0003703578581033142</v>
+        <v>0.0003564369082162476</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0008377302795606723</v>
+        <v>9.39364843758116e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0001471962400496042</v>
+        <v>0.000131017552256532</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0004924648809602779</v>
+        <v>0.0001124770183161718</v>
       </c>
       <c r="L14" t="n">
-        <v>0.001788874451497913</v>
+        <v>0.001906107782549735</v>
       </c>
       <c r="M14" t="n">
-        <v>0.01889420340130553</v>
+        <v>0.01818238438044308</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000367142368474</v>
+        <v>1.00034000006638</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01969856875649206</v>
+        <v>0.01895644612624298</v>
       </c>
       <c r="P14" t="n">
-        <v>113.8756004092069</v>
+        <v>114.0292081791719</v>
       </c>
       <c r="Q14" t="n">
-        <v>173.6005158277487</v>
+        <v>173.7541235977137</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9996238944913758</v>
+        <v>0.9996533143092859</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9996024950779852</v>
+        <v>0.9996169276048008</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9992057495005284</v>
+        <v>0.9998767078269992</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9998218961348092</v>
+        <v>0.9998441609526437</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9994773430326148</v>
+        <v>0.999861643544516</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0003510779831769356</v>
+        <v>0.0003236158745385681</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0003710533962513721</v>
+        <v>0.0003575812659836641</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0008287524868281148</v>
+        <v>9.028978924737903e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0001439955077071055</v>
+        <v>0.0001276450947953102</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0004863739972676101</v>
+        <v>0.0001089674420213446</v>
       </c>
       <c r="L15" t="n">
-        <v>0.001770794828177504</v>
+        <v>0.001883428573348179</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0187370750966349</v>
+        <v>0.01798932668385807</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000361061288279</v>
+        <v>1.000332818263086</v>
       </c>
       <c r="O15" t="n">
-        <v>0.01953475117459116</v>
+        <v>0.01875516956382983</v>
       </c>
       <c r="P15" t="n">
-        <v>113.9090043697644</v>
+        <v>114.0719066358614</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.6339197883062</v>
+        <v>173.7968220544032</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9996300948961993</v>
+        <v>0.9996606328193638</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9996016763998968</v>
+        <v>0.9996156278695341</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9992140914993137</v>
+        <v>0.9998814897678749</v>
       </c>
       <c r="E16" t="n">
-        <v>0.999825752187776</v>
+        <v>0.9998481826854722</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9994836949650642</v>
+        <v>0.9998659580395531</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0003452901774404835</v>
+        <v>0.0003167843666262949</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0003718175963110354</v>
+        <v>0.0003587945118033693</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0008200481142868817</v>
+        <v>8.678786026557992e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0001408779206513445</v>
+        <v>0.0001243509623116342</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0004804630174691131</v>
+        <v>0.0001055694112886071</v>
       </c>
       <c r="L16" t="n">
-        <v>0.001752874480293101</v>
+        <v>0.001860990593297779</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01858198529330177</v>
+        <v>0.01779843719617806</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000355108899649</v>
+        <v>1.000325792493411</v>
       </c>
       <c r="O16" t="n">
-        <v>0.01937305887725</v>
+        <v>0.01855615351546357</v>
       </c>
       <c r="P16" t="n">
-        <v>113.9422508008478</v>
+        <v>114.1145784940244</v>
       </c>
       <c r="Q16" t="n">
-        <v>173.6671662193896</v>
+        <v>173.8394939125662</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9996361645359367</v>
+        <v>0.9996677988215665</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9996007965643208</v>
+        <v>0.9996142412116505</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9992223146133339</v>
+        <v>0.9998861397253539</v>
       </c>
       <c r="E17" t="n">
-        <v>0.99982948280132</v>
+        <v>0.9998521056113819</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9994899227024548</v>
+        <v>0.9998701597939478</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0003396244351720012</v>
+        <v>0.0003100952181212023</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0003726388842009881</v>
+        <v>0.0003600888960704658</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0008114677908269334</v>
+        <v>8.338258586280899e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0001378617503355384</v>
+        <v>0.0001211377608828075</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0004746676110789853</v>
+        <v>0.0001022601733728083</v>
       </c>
       <c r="L17" t="n">
-        <v>0.001735146010848161</v>
+        <v>0.001838763946689171</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01842890216947285</v>
+        <v>0.01760952066699154</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000349282045501</v>
+        <v>1.000318913131296</v>
       </c>
       <c r="O17" t="n">
-        <v>0.01921345868791393</v>
+        <v>0.01835919441851845</v>
       </c>
       <c r="P17" t="n">
-        <v>113.9753403066245</v>
+        <v>114.1572623048358</v>
       </c>
       <c r="Q17" t="n">
-        <v>173.7002557251664</v>
+        <v>173.8821777233777</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9996421140205072</v>
+        <v>0.999674815297682</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9995998480774306</v>
+        <v>0.9996127750393633</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9992304068833306</v>
+        <v>0.9998906087905081</v>
       </c>
       <c r="E18" t="n">
-        <v>0.999833102229427</v>
+        <v>0.999855941103125</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9994960348891033</v>
+        <v>0.9998742356626883</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0003340708524776786</v>
+        <v>0.0003035456456551207</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0003735242550791265</v>
+        <v>0.0003614575035430436</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0008030239952129393</v>
+        <v>8.010978320964277e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0001349354725294613</v>
+        <v>0.0001179961752825629</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0004689797338712004</v>
+        <v>9.905008108532172e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.001717577569837067</v>
+        <v>0.00181675873627816</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01827760521725093</v>
+        <v>0.0174225613976568</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000343570540313</v>
+        <v>1.000312177314225</v>
       </c>
       <c r="O18" t="n">
-        <v>0.01905572071120806</v>
+        <v>0.01816427590602908</v>
       </c>
       <c r="P18" t="n">
-        <v>114.0083149086359</v>
+        <v>114.1999571224552</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.7332303271777</v>
+        <v>173.924872540997</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9996479387492808</v>
+        <v>0.9996816802325453</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9995988282951525</v>
+        <v>0.9996112415556445</v>
       </c>
       <c r="D19" t="n">
-        <v>0.999238289526265</v>
+        <v>0.9998949257612932</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9998366240689471</v>
+        <v>0.9998596798361153</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9995019841054346</v>
+        <v>0.9998781831462688</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0003286337238435516</v>
+        <v>0.0002971375302959705</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0003744761770725823</v>
+        <v>0.0003628889432823294</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0007947989327936919</v>
+        <v>7.694836287869169e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0001320880942919219</v>
+        <v>0.0001149338431196079</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0004634435135428069</v>
+        <v>9.594110299914981e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.00170015427629502</v>
+        <v>0.001794971727780412</v>
       </c>
       <c r="M19" t="n">
-        <v>0.01812825760638765</v>
+        <v>0.01723767763638625</v>
       </c>
       <c r="N19" t="n">
-        <v>1.00033797880069</v>
+        <v>1.000305586976757</v>
       </c>
       <c r="O19" t="n">
-        <v>0.01890001506335814</v>
+        <v>0.0179715212602791</v>
       </c>
       <c r="P19" t="n">
-        <v>114.0411334575332</v>
+        <v>114.2426309227469</v>
       </c>
       <c r="Q19" t="n">
-        <v>173.766048876075</v>
+        <v>173.9675463412888</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9996536387704601</v>
+        <v>0.9996883916929272</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9995977498150477</v>
+        <v>0.9996096257730906</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9992459925120155</v>
+        <v>0.9998990883609112</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9998400517818096</v>
+        <v>0.9998633378386674</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9995077917100136</v>
+        <v>0.9998820218284031</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0003233130042747086</v>
+        <v>0.0002908726766286266</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0003754828909105071</v>
+        <v>0.0003643972053717417</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0007867613318089135</v>
+        <v>7.389999222315385e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0001293168166816902</v>
+        <v>0.0001119376358759855</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0004580390742453019</v>
+        <v>9.291781527859754e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.00168291129744685</v>
+        <v>0.001773436953207129</v>
       </c>
       <c r="M20" t="n">
-        <v>0.01798090665886202</v>
+        <v>0.0170549897868227</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000332506780358</v>
+        <v>1.00029914397479</v>
       </c>
       <c r="O20" t="n">
-        <v>0.01874639108093784</v>
+        <v>0.01778105601074365</v>
       </c>
       <c r="P20" t="n">
-        <v>114.0737793009775</v>
+        <v>114.2852498477977</v>
       </c>
       <c r="Q20" t="n">
-        <v>173.7986947195193</v>
+        <v>174.0101652663395</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9996592150238602</v>
+        <v>0.9996949689749131</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9995966116805409</v>
+        <v>0.9996079373058506</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9992535620185578</v>
+        <v>0.9999031322439947</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9998433449337596</v>
+        <v>0.9998669082259046</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9995134660273124</v>
+        <v>0.9998857572211983</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0003181078164948826</v>
+        <v>0.0002847330726041529</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0003765452895142305</v>
+        <v>0.0003659733154251288</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0007788630083265088</v>
+        <v>7.093856050797789e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0001266543304605759</v>
+        <v>0.000109013192836351</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0004527586693935424</v>
+        <v>8.997587667216445e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.001665851282209602</v>
+        <v>0.001752052343435612</v>
       </c>
       <c r="M21" t="n">
-        <v>0.01783557726833877</v>
+        <v>0.01687403545700177</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000327153577094</v>
+        <v>1.000292829784083</v>
       </c>
       <c r="O21" t="n">
-        <v>0.0185948747173867</v>
+        <v>0.01759239808047514</v>
       </c>
       <c r="P21" t="n">
-        <v>114.1062403741313</v>
+        <v>114.3279168078429</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8311557926732</v>
+        <v>174.0528322263847</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.999664679628164</v>
+        <v>0.9997014107105617</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9995954195918919</v>
+        <v>0.999606202036625</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9992610123071743</v>
+        <v>0.9999070522479174</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9998465444234792</v>
+        <v>0.9998703787979082</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9995190299676951</v>
+        <v>0.999889384384975</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0003130068482457464</v>
+        <v>0.0002787199951356464</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0003776580519415231</v>
+        <v>0.0003675931130777518</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0007710890815581347</v>
+        <v>6.806784844730983e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0001240675693811483</v>
+        <v>0.0001061705067451407</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0004475809790662297</v>
+        <v>8.711917759622527e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.001648946587374347</v>
+        <v>0.001730833530866693</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01769199955476334</v>
+        <v>0.01669490925808363</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000321907556962</v>
+        <v>1.000286645717861</v>
       </c>
       <c r="O22" t="n">
-        <v>0.01844518460329753</v>
+        <v>0.0174056461084267</v>
       </c>
       <c r="P22" t="n">
-        <v>114.1385709765682</v>
+        <v>114.3706057635052</v>
       </c>
       <c r="Q22" t="n">
-        <v>173.86348639511</v>
+        <v>174.095521182047</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9996700340952202</v>
+        <v>0.9997077066923408</v>
       </c>
       <c r="C23" t="n">
-        <v>0.999594162854749</v>
+        <v>0.999604373108622</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9992682696481738</v>
+        <v>0.9999107563827927</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9998496470118722</v>
+        <v>0.9998737963469194</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9995244493429648</v>
+        <v>0.9998928813773958</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0003080086882827439</v>
+        <v>0.000272842972506566</v>
       </c>
       <c r="H23" t="n">
-        <v>0.000378831160900005</v>
+        <v>0.0003693003370878707</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0007635164839896355</v>
+        <v>6.53552224216675e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0001215591522259587</v>
+        <v>0.0001033712508788427</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0004425378181077971</v>
+        <v>8.436499950217197e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.001632175934053781</v>
+        <v>0.001709948264402141</v>
       </c>
       <c r="M23" t="n">
-        <v>0.01755017630346612</v>
+        <v>0.01651795909023164</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000316767268589</v>
+        <v>1.000280601575353</v>
       </c>
       <c r="O23" t="n">
-        <v>0.01829732364257799</v>
+        <v>0.01722116280559191</v>
       </c>
       <c r="P23" t="n">
-        <v>114.1707651333567</v>
+        <v>114.413228241099</v>
       </c>
       <c r="Q23" t="n">
-        <v>173.8956805518985</v>
+        <v>174.1381436596408</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9996752893314429</v>
+        <v>0.9997138814491613</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9995928351617224</v>
+        <v>0.9996025050970064</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9992754443711392</v>
+        <v>0.9999143967475355</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9998526598049281</v>
+        <v>0.9998771154399894</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9995297805404528</v>
+        <v>0.9998963020018173</v>
       </c>
       <c r="G24" t="n">
-        <v>0.000303103155946972</v>
+        <v>0.0002670791080550811</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0003800705040614112</v>
+        <v>0.0003710440439347614</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0007560300933561062</v>
+        <v>6.26892967800931e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0001191233338609166</v>
+        <v>0.0001006526385879198</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0004375767136085114</v>
+        <v>8.167096768400646e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.001615540879924411</v>
+        <v>0.001689123615610397</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01740985801053449</v>
+        <v>0.01634255512626717</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000311722241815</v>
+        <v>1.000274673808805</v>
       </c>
       <c r="O24" t="n">
-        <v>0.01815103170941735</v>
+        <v>0.0170382915317452</v>
       </c>
       <c r="P24" t="n">
-        <v>114.2028747234491</v>
+        <v>114.4559313171944</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.9277901419909</v>
+        <v>174.1808467357363</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9996804443698032</v>
+        <v>0.9997199174265041</v>
       </c>
       <c r="C25" t="n">
-        <v>0.999591454853113</v>
+        <v>0.9996005842561267</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9992825106630635</v>
+        <v>0.9999179057500509</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9998555843243562</v>
+        <v>0.9998803457354677</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9995350126009517</v>
+        <v>0.9998996131409038</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0002982911539177491</v>
+        <v>0.0002614447881543419</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0003813589615597045</v>
+        <v>0.0003728370645807951</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0007486568439734916</v>
+        <v>6.011957082046438e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0001167588839968895</v>
+        <v>9.800675888360947e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0004327078639851906</v>
+        <v>7.906316485203693e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.001599028274251286</v>
+        <v>0.00166850918699996</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0172711074896125</v>
+        <v>0.01616925440935178</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000306773404989</v>
+        <v>1.000268879270556</v>
       </c>
       <c r="O25" t="n">
-        <v>0.01800637429156653</v>
+        <v>0.01685761304452879</v>
       </c>
       <c r="P25" t="n">
-        <v>114.2348810437381</v>
+        <v>114.498574863833</v>
       </c>
       <c r="Q25" t="n">
-        <v>173.9597964622799</v>
+        <v>174.2234902823748</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9996854775128228</v>
+        <v>0.9997258217512454</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9995900288850972</v>
+        <v>0.9995985794883196</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9992893795856512</v>
+        <v>0.9999212389740378</v>
       </c>
       <c r="E26" t="n">
-        <v>0.999858401321589</v>
+        <v>0.9998835103878506</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9995400886836767</v>
+        <v>0.9999028084233048</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0002935929358383544</v>
+        <v>0.0002559333601782484</v>
       </c>
       <c r="H26" t="n">
-        <v>0.000382690040109645</v>
+        <v>0.0003747084273295933</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0007414895375881516</v>
+        <v>5.767857165582172e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0001144813649418465</v>
+        <v>9.541464631445626e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0004279841641217886</v>
+        <v>7.654660898513899e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.001582699531636907</v>
+        <v>0.001648199124204796</v>
       </c>
       <c r="M26" t="n">
-        <v>0.01713455385583046</v>
+        <v>0.01599791737002815</v>
       </c>
       <c r="N26" t="n">
-        <v>1.00030194158769</v>
+        <v>1.000263211118805</v>
       </c>
       <c r="O26" t="n">
-        <v>0.0178640072868894</v>
+        <v>0.01667898183272459</v>
       </c>
       <c r="P26" t="n">
-        <v>114.2666326440189</v>
+        <v>114.5411869183509</v>
       </c>
       <c r="Q26" t="n">
-        <v>173.9915480625607</v>
+        <v>174.2661023368927</v>
       </c>
     </row>
   </sheetData>
